--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt7b-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt7b-Fzd1.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.298076</v>
+        <v>0.5854969999999999</v>
       </c>
       <c r="H2">
-        <v>0.596152</v>
+        <v>1.170994</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.752908</v>
+        <v>1.532593</v>
       </c>
       <c r="N2">
-        <v>1.505816</v>
+        <v>3.065186</v>
       </c>
       <c r="O2">
-        <v>0.04239205579776523</v>
+        <v>0.0795983245703594</v>
       </c>
       <c r="P2">
-        <v>0.03064402855818915</v>
+        <v>0.05838920196386116</v>
       </c>
       <c r="Q2">
-        <v>0.224423805008</v>
+        <v>0.897328603721</v>
       </c>
       <c r="R2">
-        <v>0.8976952200320001</v>
+        <v>3.589314414884</v>
       </c>
       <c r="S2">
-        <v>0.04239205579776523</v>
+        <v>0.0795983245703594</v>
       </c>
       <c r="T2">
-        <v>0.03064402855818915</v>
+        <v>0.05838920196386116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.298076</v>
+        <v>0.5854969999999999</v>
       </c>
       <c r="H3">
-        <v>0.596152</v>
+        <v>1.170994</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>36.540661</v>
       </c>
       <c r="O3">
-        <v>0.6858003633906682</v>
+        <v>0.6326044366842063</v>
       </c>
       <c r="P3">
-        <v>0.743618781590253</v>
+        <v>0.6960687002426557</v>
       </c>
       <c r="Q3">
-        <v>3.630631356078667</v>
+        <v>7.131482464505665</v>
       </c>
       <c r="R3">
-        <v>21.783788136472</v>
+        <v>42.788894787034</v>
       </c>
       <c r="S3">
-        <v>0.6858003633906682</v>
+        <v>0.6326044366842063</v>
       </c>
       <c r="T3">
-        <v>0.743618781590253</v>
+        <v>0.6960687002426557</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.298076</v>
+        <v>0.5854969999999999</v>
       </c>
       <c r="H4">
-        <v>0.596152</v>
+        <v>1.170994</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4715666666666667</v>
+        <v>0.8528209999999999</v>
       </c>
       <c r="N4">
-        <v>1.4147</v>
+        <v>2.558463</v>
       </c>
       <c r="O4">
-        <v>0.02655129238326527</v>
+        <v>0.04429298760885536</v>
       </c>
       <c r="P4">
-        <v>0.02878977723790303</v>
+        <v>0.04873655720209673</v>
       </c>
       <c r="Q4">
-        <v>0.1405627057333333</v>
+        <v>0.4993241370369999</v>
       </c>
       <c r="R4">
-        <v>0.8433762344000001</v>
+        <v>2.995944822222</v>
       </c>
       <c r="S4">
-        <v>0.02655129238326527</v>
+        <v>0.04429298760885536</v>
       </c>
       <c r="T4">
-        <v>0.02878977723790303</v>
+        <v>0.04873655720209673</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.298076</v>
+        <v>0.5854969999999999</v>
       </c>
       <c r="H5">
-        <v>0.596152</v>
+        <v>1.170994</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.3898975</v>
+        <v>3.7338975</v>
       </c>
       <c r="N5">
-        <v>6.779795</v>
+        <v>7.467795</v>
       </c>
       <c r="O5">
-        <v>0.1908662465649254</v>
+        <v>0.1939275366111247</v>
       </c>
       <c r="P5">
-        <v>0.1379718581809916</v>
+        <v>0.142255181408147</v>
       </c>
       <c r="Q5">
-        <v>1.01044708721</v>
+        <v>2.186185784557499</v>
       </c>
       <c r="R5">
-        <v>4.04178834884</v>
+        <v>8.744743138229998</v>
       </c>
       <c r="S5">
-        <v>0.1908662465649254</v>
+        <v>0.1939275366111247</v>
       </c>
       <c r="T5">
-        <v>0.1379718581809916</v>
+        <v>0.142255181408147</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.298076</v>
+        <v>0.5854969999999999</v>
       </c>
       <c r="H6">
-        <v>0.596152</v>
+        <v>1.170994</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6355266666666667</v>
+        <v>0.2147316666666667</v>
       </c>
       <c r="N6">
-        <v>1.90658</v>
+        <v>0.644195</v>
       </c>
       <c r="O6">
-        <v>0.03578296672940263</v>
+        <v>0.01115252444639089</v>
       </c>
       <c r="P6">
-        <v>0.03879975506202103</v>
+        <v>0.01227137014168456</v>
       </c>
       <c r="Q6">
-        <v>0.1894352466933333</v>
+        <v>0.1257247466383333</v>
       </c>
       <c r="R6">
-        <v>1.13661148016</v>
+        <v>0.7543484798299999</v>
       </c>
       <c r="S6">
-        <v>0.03578296672940263</v>
+        <v>0.01115252444639089</v>
       </c>
       <c r="T6">
-        <v>0.03879975506202103</v>
+        <v>0.01227137014168456</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.298076</v>
+        <v>0.5854969999999999</v>
       </c>
       <c r="H7">
-        <v>0.596152</v>
+        <v>1.170994</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3304726666666667</v>
+        <v>0.7398226666666666</v>
       </c>
       <c r="N7">
-        <v>0.991418</v>
+        <v>2.219468</v>
       </c>
       <c r="O7">
-        <v>0.01860707513397334</v>
+        <v>0.03842419007906348</v>
       </c>
       <c r="P7">
-        <v>0.02017579937064208</v>
+        <v>0.04227898904155473</v>
       </c>
       <c r="Q7">
-        <v>0.09850597058933334</v>
+        <v>0.4331639518653332</v>
       </c>
       <c r="R7">
-        <v>0.591035823536</v>
+        <v>2.598983711192</v>
       </c>
       <c r="S7">
-        <v>0.01860707513397334</v>
+        <v>0.03842419007906348</v>
       </c>
       <c r="T7">
-        <v>0.02017579937064208</v>
+        <v>0.04227898904155473</v>
       </c>
     </row>
   </sheetData>
